--- a/Arduino LED Matrix Design Tool.xlsx
+++ b/Arduino LED Matrix Design Tool.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SethDurda\Documents\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SethDurda\Documents\Project Files\GitHub\Arduino-LED-Matrix-Design-Tool\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB593DE3-2192-4D6B-AD26-711EABF6BDE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{595E7B50-E186-4ACD-810B-DC8492C59E86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{79C2CA30-25DE-499D-A268-D08D3B824B83}"/>
   </bookViews>
@@ -44,7 +44,7 @@
     <t>^</t>
   </si>
   <si>
-    <t xml:space="preserve">Copy the text from this cell into the pattern variable in the Arduino script. </t>
+    <t xml:space="preserve">Copy the text from this cell into the pattern constant in the Arduino script. </t>
   </si>
 </sst>
 </file>
@@ -101,7 +101,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="15">
+  <dxfs count="5">
     <dxf>
       <fill>
         <patternFill>
@@ -134,76 +134,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.34998626667073579"/>
         </patternFill>
       </fill>
     </dxf>
@@ -540,7 +470,7 @@
   <dimension ref="A1:AI10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AU15" sqref="AU15"/>
+      <selection activeCell="BA7" sqref="BA7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.77734375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
